--- a/input_data/input_data_V3.xlsx
+++ b/input_data/input_data_V3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\Hope\Predicer_new\Predicer\input_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\Hope\Predicer_structured\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22FB2B5D-38CE-451E-905E-2A7B2C939678}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85029CA-C3BA-4CC8-8F12-B61C6A031C4A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="28800" windowHeight="15435" tabRatio="796" activeTab="1" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" tabRatio="796" activeTab="10" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="nodes" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="95">
   <si>
     <t>node</t>
   </si>
@@ -954,138 +954,114 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31679CA5-0AA2-4F6F-8223-14BF74917F04}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>32</v>
       </c>
       <c r="B1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="3">
         <v>-3.5</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>4.1666666666666699E-2</v>
       </c>
       <c r="B3" s="3">
         <v>-6</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>8.3333333333333301E-2</v>
       </c>
       <c r="B4" s="3">
         <v>-2</v>
       </c>
-      <c r="C4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0.125</v>
       </c>
       <c r="B5" s="3">
         <v>3</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0.16666666666666699</v>
       </c>
       <c r="B6" s="3">
         <v>-9.5</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0.20833333333333301</v>
       </c>
       <c r="B7" s="3">
         <v>-9</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>0.25</v>
       </c>
       <c r="B8" s="3">
         <v>0.5</v>
       </c>
-      <c r="C8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>0.29166666666666702</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>0.33333333333333298</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>0.375</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>0.41666666666666702</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>0.45833333333333298</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>0.54166666666666696</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>0.58333333333333304</v>
       </c>
@@ -1510,8 +1486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB20090B-02A9-43B7-8D03-9C18D42920EB}">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1592,7 +1568,7 @@
         <v>0.8</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L2">
         <v>4</v>
@@ -1901,7 +1877,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2148,7 +2124,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -3776,7 +3752,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/input_data/input_data_V3.xlsx
+++ b/input_data/input_data_V3.xlsx
@@ -1,30 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\Hope\Predicer_structured\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85029CA-C3BA-4CC8-8F12-B61C6A031C4A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD4691E-13D3-4F60-8AE7-B22B62C11455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" tabRatio="796" activeTab="10" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="4290" yWindow="4290" windowWidth="28800" windowHeight="15435" tabRatio="796" activeTab="11" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="nodes" sheetId="1" r:id="rId1"/>
     <sheet name="processes" sheetId="2" r:id="rId2"/>
     <sheet name="efficiencies" sheetId="10" r:id="rId3"/>
     <sheet name="process_topology" sheetId="6" r:id="rId4"/>
-    <sheet name="cf" sheetId="7" r:id="rId5"/>
-    <sheet name="inflow" sheetId="3" r:id="rId6"/>
-    <sheet name="price" sheetId="4" r:id="rId7"/>
-    <sheet name="markets" sheetId="5" r:id="rId8"/>
-    <sheet name="market_prices" sheetId="8" r:id="rId9"/>
-    <sheet name="scenarios" sheetId="9" r:id="rId10"/>
-    <sheet name="fixed_ts" sheetId="11" r:id="rId11"/>
-    <sheet name="eff_ts" sheetId="12" r:id="rId12"/>
+    <sheet name="reserve_type" sheetId="13" r:id="rId5"/>
+    <sheet name="cf" sheetId="7" r:id="rId6"/>
+    <sheet name="inflow" sheetId="3" r:id="rId7"/>
+    <sheet name="price" sheetId="4" r:id="rId8"/>
+    <sheet name="markets" sheetId="5" r:id="rId9"/>
+    <sheet name="market_prices" sheetId="8" r:id="rId10"/>
+    <sheet name="scenarios" sheetId="9" r:id="rId11"/>
+    <sheet name="fixed_ts" sheetId="11" r:id="rId12"/>
+    <sheet name="eff_ts" sheetId="12" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="99">
   <si>
     <t>node</t>
   </si>
@@ -329,6 +330,18 @@
   </si>
   <si>
     <t>min_offline</t>
+  </si>
+  <si>
+    <t>ramp_factor</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>slow</t>
+  </si>
+  <si>
+    <t>reserve_type</t>
   </si>
 </sst>
 </file>
@@ -692,7 +705,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -906,11 +919,1176 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6DDD9A-EF34-4108-8532-230729E9C708}">
+  <dimension ref="A1:M25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="13" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>48</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>12</v>
+      </c>
+      <c r="F2">
+        <f>1.5*B2</f>
+        <v>72</v>
+      </c>
+      <c r="G2">
+        <f>1.2*C2</f>
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:I17" si="0">1.2*D2</f>
+        <v>4.8</v>
+      </c>
+      <c r="I2">
+        <f t="shared" si="0"/>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="J2">
+        <f>0.5*B2</f>
+        <v>24</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="B3">
+        <v>60</v>
+      </c>
+      <c r="C3">
+        <v>34</v>
+      </c>
+      <c r="D3">
+        <v>56</v>
+      </c>
+      <c r="E3">
+        <v>71</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F25" si="1">1.5*B3</f>
+        <v>90</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G25" si="2">1.2*C3</f>
+        <v>40.799999999999997</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="0"/>
+        <v>67.2</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="0"/>
+        <v>85.2</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J25" si="3">0.5*B3</f>
+        <v>30</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="B4">
+        <v>58</v>
+      </c>
+      <c r="C4">
+        <v>92</v>
+      </c>
+      <c r="D4">
+        <v>44</v>
+      </c>
+      <c r="E4">
+        <v>42</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>110.39999999999999</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>52.8</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>50.4</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="B5">
+        <v>51</v>
+      </c>
+      <c r="C5">
+        <v>66</v>
+      </c>
+      <c r="D5">
+        <v>86</v>
+      </c>
+      <c r="E5">
+        <v>39</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>76.5</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>79.2</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>103.2</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>46.8</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="3"/>
+        <v>25.5</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="B6">
+        <v>37</v>
+      </c>
+      <c r="C6">
+        <v>64</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>78</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>55.5</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>76.8</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>93.6</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="3"/>
+        <v>18.5</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="B7">
+        <v>34</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>8.4</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="B8">
+        <v>45</v>
+      </c>
+      <c r="C8">
+        <v>92</v>
+      </c>
+      <c r="D8">
+        <v>12</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>67.5</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>110.39999999999999</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>8.4</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>22.5</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="B9">
+        <v>41</v>
+      </c>
+      <c r="C9">
+        <v>94</v>
+      </c>
+      <c r="D9">
+        <v>50</v>
+      </c>
+      <c r="E9">
+        <v>49</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>61.5</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>112.8</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>58.8</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="3"/>
+        <v>20.5</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="B10">
+        <v>55</v>
+      </c>
+      <c r="C10">
+        <v>87</v>
+      </c>
+      <c r="D10">
+        <v>99</v>
+      </c>
+      <c r="E10">
+        <v>94</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>82.5</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>104.39999999999999</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>118.8</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>112.8</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="3"/>
+        <v>27.5</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="B11">
+        <v>59</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>78</v>
+      </c>
+      <c r="E11">
+        <v>88</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>88.5</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>93.6</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>105.6</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="3"/>
+        <v>29.5</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="B12">
+        <v>60</v>
+      </c>
+      <c r="C12">
+        <v>44</v>
+      </c>
+      <c r="D12">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>24</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>52.8</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>28.799999999999997</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="B13">
+        <v>41</v>
+      </c>
+      <c r="C13">
+        <v>99</v>
+      </c>
+      <c r="D13">
+        <v>66</v>
+      </c>
+      <c r="E13">
+        <v>75</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>61.5</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>118.8</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>79.2</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="3"/>
+        <v>20.5</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B14">
+        <v>46</v>
+      </c>
+      <c r="C14">
+        <v>60</v>
+      </c>
+      <c r="D14">
+        <v>15</v>
+      </c>
+      <c r="E14">
+        <v>40</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="B15">
+        <v>38</v>
+      </c>
+      <c r="C15">
+        <v>91</v>
+      </c>
+      <c r="D15">
+        <v>79</v>
+      </c>
+      <c r="E15">
+        <v>95</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>109.2</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>94.8</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="B16">
+        <v>46</v>
+      </c>
+      <c r="C16">
+        <v>67</v>
+      </c>
+      <c r="D16">
+        <v>60</v>
+      </c>
+      <c r="E16">
+        <v>71</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>80.399999999999991</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>85.2</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="B17">
+        <v>45</v>
+      </c>
+      <c r="C17">
+        <v>85</v>
+      </c>
+      <c r="D17">
+        <v>70</v>
+      </c>
+      <c r="E17">
+        <v>19</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>67.5</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>102</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>22.8</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="3"/>
+        <v>22.5</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="B18">
+        <v>41</v>
+      </c>
+      <c r="C18">
+        <v>42</v>
+      </c>
+      <c r="D18">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>79</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>61.5</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>50.4</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ref="H18:H25" si="4">1.2*D18</f>
+        <v>25.2</v>
+      </c>
+      <c r="I18">
+        <f t="shared" ref="I18:I25" si="5">1.2*E18</f>
+        <v>94.8</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="3"/>
+        <v>20.5</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="B19">
+        <v>46</v>
+      </c>
+      <c r="C19">
+        <v>71</v>
+      </c>
+      <c r="D19">
+        <v>78</v>
+      </c>
+      <c r="E19">
+        <v>38</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>85.2</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="4"/>
+        <v>93.6</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="5"/>
+        <v>45.6</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="B20">
+        <v>52</v>
+      </c>
+      <c r="C20">
+        <v>76</v>
+      </c>
+      <c r="D20">
+        <v>79</v>
+      </c>
+      <c r="E20">
+        <v>39</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>91.2</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="4"/>
+        <v>94.8</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="5"/>
+        <v>46.8</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="B21">
+        <v>56</v>
+      </c>
+      <c r="C21">
+        <v>70</v>
+      </c>
+      <c r="D21">
+        <v>28</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="4"/>
+        <v>33.6</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="5"/>
+        <v>1.2</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="B22">
+        <v>33</v>
+      </c>
+      <c r="C22">
+        <v>74</v>
+      </c>
+      <c r="D22">
+        <v>9</v>
+      </c>
+      <c r="E22">
+        <v>23</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>49.5</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>88.8</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="4"/>
+        <v>10.799999999999999</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="5"/>
+        <v>27.599999999999998</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="3"/>
+        <v>16.5</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="B23">
+        <v>43</v>
+      </c>
+      <c r="C23">
+        <v>84</v>
+      </c>
+      <c r="D23">
+        <v>32</v>
+      </c>
+      <c r="E23">
+        <v>47</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>64.5</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>100.8</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="4"/>
+        <v>38.4</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="5"/>
+        <v>56.4</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="3"/>
+        <v>21.5</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="B24">
+        <v>57</v>
+      </c>
+      <c r="C24">
+        <v>59</v>
+      </c>
+      <c r="D24">
+        <v>40</v>
+      </c>
+      <c r="E24">
+        <v>24</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>85.5</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="2"/>
+        <v>70.8</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="5"/>
+        <v>28.799999999999997</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="3"/>
+        <v>28.5</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="B25">
+        <v>32</v>
+      </c>
+      <c r="C25">
+        <v>65</v>
+      </c>
+      <c r="D25">
+        <v>53</v>
+      </c>
+      <c r="E25">
+        <v>96</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="4"/>
+        <v>63.599999999999994</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="5"/>
+        <v>115.19999999999999</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87AD413-E614-48C1-80E1-F1E8236FCBC6}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -928,7 +2106,7 @@
         <v>51</v>
       </c>
       <c r="B2">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -944,7 +2122,7 @@
         <v>53</v>
       </c>
       <c r="B4">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -952,12 +2130,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31679CA5-0AA2-4F6F-8223-14BF74917F04}">
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B8" sqref="B1:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -966,65 +2144,48 @@
       <c r="A1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="3">
-        <v>-3.5</v>
-      </c>
+      <c r="B2" s="3"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>4.1666666666666699E-2</v>
       </c>
-      <c r="B3" s="3">
-        <v>-6</v>
-      </c>
+      <c r="B3" s="3"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>8.3333333333333301E-2</v>
       </c>
-      <c r="B4" s="3">
-        <v>-2</v>
-      </c>
+      <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0.125</v>
       </c>
-      <c r="B5" s="3">
-        <v>3</v>
-      </c>
+      <c r="B5" s="3"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0.16666666666666699</v>
       </c>
-      <c r="B6" s="3">
-        <v>-9.5</v>
-      </c>
+      <c r="B6" s="3"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0.20833333333333301</v>
       </c>
-      <c r="B7" s="3">
-        <v>-9</v>
-      </c>
+      <c r="B7" s="3"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>0.25</v>
       </c>
-      <c r="B8" s="3">
-        <v>0.5</v>
-      </c>
+      <c r="B8" s="3"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -1116,7 +2277,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD670E02-665B-45B8-BC4E-9596D2C1BC55}">
   <dimension ref="A1:D25"/>
   <sheetViews>
@@ -1487,7 +2648,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1556,7 +2717,7 @@
         <v>0.9</v>
       </c>
       <c r="G2">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -1874,10 +3035,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A86A8A7-FD76-4891-A53C-CBB095359118}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1885,9 +3046,10 @@
     <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1906,8 +3068,14 @@
       <c r="F1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1926,8 +3094,14 @@
       <c r="F2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <v>0.3</v>
+      </c>
+      <c r="H2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -1946,8 +3120,14 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>0.3</v>
+      </c>
+      <c r="H3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -1966,8 +3146,14 @@
       <c r="F4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>0.3</v>
+      </c>
+      <c r="H4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -1986,8 +3172,14 @@
       <c r="F5">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>0.4</v>
+      </c>
+      <c r="H5">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -2006,8 +3198,14 @@
       <c r="F6">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>0.4</v>
+      </c>
+      <c r="H6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -2026,8 +3224,14 @@
       <c r="F7">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -2046,8 +3250,14 @@
       <c r="F8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -2066,8 +3276,14 @@
       <c r="F9">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -2086,8 +3302,14 @@
       <c r="F10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -2106,8 +3328,14 @@
       <c r="F11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -2126,8 +3354,14 @@
       <c r="F12">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -2145,6 +3379,12 @@
       </c>
       <c r="F13">
         <v>0</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2153,6 +3393,45 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A011650-DC4A-433C-A6EC-976D77654367}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77A4637A-7829-48D6-AE54-2E654AB1A427}">
   <dimension ref="A1:E25"/>
   <sheetViews>
@@ -2590,12 +3869,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F87DD44-A1AD-4241-AED7-C48CC9DEE2E2}">
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A25"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3282,12 +4561,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02307C1F-427B-487D-B703-EBF512D7AC27}">
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3339,13 +4618,13 @@
         <v>8.3333333333333301E-2</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -3353,13 +4632,13 @@
         <v>0.125</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -3367,13 +4646,13 @@
         <v>0.16666666666666699</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -3381,13 +4660,13 @@
         <v>0.20833333333333301</v>
       </c>
       <c r="B7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -3395,13 +4674,13 @@
         <v>0.25</v>
       </c>
       <c r="B8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D8">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -3409,13 +4688,13 @@
         <v>0.29166666666666702</v>
       </c>
       <c r="B9">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -3423,13 +4702,13 @@
         <v>0.33333333333333298</v>
       </c>
       <c r="B10">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D10">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -3437,13 +4716,13 @@
         <v>0.375</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D11">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -3451,13 +4730,13 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="B12">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="C12">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="D12">
-        <v>1000</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -3465,13 +4744,13 @@
         <v>0.45833333333333298</v>
       </c>
       <c r="B13">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="C13">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="D13">
-        <v>1000</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -3479,13 +4758,13 @@
         <v>0.5</v>
       </c>
       <c r="B14">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="C14">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="D14">
-        <v>1000</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -3493,13 +4772,13 @@
         <v>0.54166666666666696</v>
       </c>
       <c r="B15">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="C15">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="D15">
-        <v>1000</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -3507,13 +4786,13 @@
         <v>0.58333333333333304</v>
       </c>
       <c r="B16">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="C16">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="D16">
-        <v>1000</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -3521,13 +4800,13 @@
         <v>0.625</v>
       </c>
       <c r="B17">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="C17">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="D17">
-        <v>1000</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -3535,13 +4814,13 @@
         <v>0.66666666666666696</v>
       </c>
       <c r="B18">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C18">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D18">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -3549,13 +4828,13 @@
         <v>0.70833333333333304</v>
       </c>
       <c r="B19">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C19">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -3577,13 +4856,13 @@
         <v>0.79166666666666696</v>
       </c>
       <c r="B21">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C21">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D21">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -3591,13 +4870,13 @@
         <v>0.83333333333333304</v>
       </c>
       <c r="B22">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C22">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D22">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -3605,13 +4884,13 @@
         <v>0.875</v>
       </c>
       <c r="B23">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C23">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D23">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -3619,13 +4898,13 @@
         <v>0.91666666666666696</v>
       </c>
       <c r="B24">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C24">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D24">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -3633,113 +4912,13 @@
         <v>0.95833333333333304</v>
       </c>
       <c r="B25">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C25">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D25">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3788A93-7501-4F5D-9E8F-38D329CC85EC}">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5">
-        <v>0.2</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -3748,1166 +4927,116 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6DDD9A-EF34-4108-8532-230729E9C708}">
-  <dimension ref="A1:M25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3788A93-7501-4F5D-9E8F-38D329CC85EC}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="13" width="11.140625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="E1" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="F1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K1" t="s">
-        <v>75</v>
-      </c>
-      <c r="L1" t="s">
-        <v>76</v>
-      </c>
-      <c r="M1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
         <v>48</v>
       </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-      <c r="E2">
-        <v>12</v>
-      </c>
-      <c r="F2">
-        <f>1.5*B2</f>
-        <v>72</v>
-      </c>
-      <c r="G2">
-        <f>1.2*C2</f>
-        <v>6</v>
-      </c>
-      <c r="H2">
-        <f t="shared" ref="H2:I17" si="0">1.2*D2</f>
-        <v>4.8</v>
-      </c>
-      <c r="I2">
-        <f t="shared" si="0"/>
-        <v>14.399999999999999</v>
-      </c>
-      <c r="J2">
-        <f>0.5*B2</f>
-        <v>24</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>4.1666666666666699E-2</v>
-      </c>
-      <c r="B3">
-        <v>60</v>
-      </c>
-      <c r="C3">
-        <v>34</v>
-      </c>
-      <c r="D3">
-        <v>56</v>
-      </c>
-      <c r="E3">
-        <v>71</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F25" si="1">1.5*B3</f>
-        <v>90</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G25" si="2">1.2*C3</f>
-        <v>40.799999999999997</v>
-      </c>
-      <c r="H3">
-        <f t="shared" si="0"/>
-        <v>67.2</v>
-      </c>
-      <c r="I3">
-        <f t="shared" si="0"/>
-        <v>85.2</v>
-      </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J25" si="3">0.5*B3</f>
-        <v>30</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>8.3333333333333301E-2</v>
-      </c>
-      <c r="B4">
-        <v>58</v>
-      </c>
-      <c r="C4">
-        <v>92</v>
-      </c>
-      <c r="D4">
-        <v>44</v>
-      </c>
       <c r="E4">
-        <v>42</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="1"/>
-        <v>87</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="2"/>
-        <v>110.39999999999999</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="0"/>
-        <v>52.8</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="0"/>
-        <v>50.4</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="3"/>
-        <v>29</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="B5">
-        <v>51</v>
-      </c>
-      <c r="C5">
-        <v>66</v>
-      </c>
-      <c r="D5">
-        <v>86</v>
+        <v>0.2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>47</v>
       </c>
       <c r="E5">
-        <v>39</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="1"/>
-        <v>76.5</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="2"/>
-        <v>79.2</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="0"/>
-        <v>103.2</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="0"/>
-        <v>46.8</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="3"/>
-        <v>25.5</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>0.16666666666666699</v>
-      </c>
-      <c r="B6">
-        <v>37</v>
-      </c>
-      <c r="C6">
-        <v>64</v>
-      </c>
-      <c r="D6">
-        <v>10</v>
-      </c>
-      <c r="E6">
-        <v>78</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="1"/>
-        <v>55.5</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="2"/>
-        <v>76.8</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="0"/>
-        <v>93.6</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="3"/>
-        <v>18.5</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>0.20833333333333301</v>
-      </c>
-      <c r="B7">
-        <v>34</v>
-      </c>
-      <c r="C7">
-        <v>7</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="E7">
-        <v>100</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="1"/>
-        <v>51</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="2"/>
-        <v>8.4</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="B8">
-        <v>45</v>
-      </c>
-      <c r="C8">
-        <v>92</v>
-      </c>
-      <c r="D8">
-        <v>12</v>
-      </c>
-      <c r="E8">
-        <v>7</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="1"/>
-        <v>67.5</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="2"/>
-        <v>110.39999999999999</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="0"/>
-        <v>14.399999999999999</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="0"/>
-        <v>8.4</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="3"/>
-        <v>22.5</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>0.29166666666666702</v>
-      </c>
-      <c r="B9">
-        <v>41</v>
-      </c>
-      <c r="C9">
-        <v>94</v>
-      </c>
-      <c r="D9">
-        <v>50</v>
-      </c>
-      <c r="E9">
-        <v>49</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="1"/>
-        <v>61.5</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="2"/>
-        <v>112.8</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="0"/>
-        <v>58.8</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="3"/>
-        <v>20.5</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="B10">
-        <v>55</v>
-      </c>
-      <c r="C10">
-        <v>87</v>
-      </c>
-      <c r="D10">
-        <v>99</v>
-      </c>
-      <c r="E10">
-        <v>94</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="1"/>
-        <v>82.5</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="2"/>
-        <v>104.39999999999999</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="0"/>
-        <v>118.8</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="0"/>
-        <v>112.8</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="3"/>
-        <v>27.5</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>0.375</v>
-      </c>
-      <c r="B11">
-        <v>59</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="D11">
-        <v>78</v>
-      </c>
-      <c r="E11">
-        <v>88</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="1"/>
-        <v>88.5</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="2"/>
-        <v>3.5999999999999996</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="0"/>
-        <v>93.6</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="0"/>
-        <v>105.6</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="3"/>
-        <v>29.5</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>0.41666666666666702</v>
-      </c>
-      <c r="B12">
-        <v>60</v>
-      </c>
-      <c r="C12">
-        <v>44</v>
-      </c>
-      <c r="D12">
-        <v>25</v>
-      </c>
-      <c r="E12">
-        <v>24</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="2"/>
-        <v>52.8</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="0"/>
-        <v>28.799999999999997</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>0.45833333333333298</v>
-      </c>
-      <c r="B13">
-        <v>41</v>
-      </c>
-      <c r="C13">
-        <v>99</v>
-      </c>
-      <c r="D13">
-        <v>66</v>
-      </c>
-      <c r="E13">
-        <v>75</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="1"/>
-        <v>61.5</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="2"/>
-        <v>118.8</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="0"/>
-        <v>79.2</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="3"/>
-        <v>20.5</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="B14">
-        <v>46</v>
-      </c>
-      <c r="C14">
-        <v>60</v>
-      </c>
-      <c r="D14">
-        <v>15</v>
-      </c>
-      <c r="E14">
-        <v>40</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="1"/>
-        <v>69</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="2"/>
-        <v>72</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="3"/>
-        <v>23</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>0.54166666666666696</v>
-      </c>
-      <c r="B15">
-        <v>38</v>
-      </c>
-      <c r="C15">
-        <v>91</v>
-      </c>
-      <c r="D15">
-        <v>79</v>
-      </c>
-      <c r="E15">
-        <v>95</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="1"/>
-        <v>57</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="2"/>
-        <v>109.2</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="0"/>
-        <v>94.8</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="0"/>
-        <v>114</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="3"/>
-        <v>19</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>0.58333333333333304</v>
-      </c>
-      <c r="B16">
-        <v>46</v>
-      </c>
-      <c r="C16">
-        <v>67</v>
-      </c>
-      <c r="D16">
-        <v>60</v>
-      </c>
-      <c r="E16">
-        <v>71</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="1"/>
-        <v>69</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="2"/>
-        <v>80.399999999999991</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="0"/>
-        <v>72</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="0"/>
-        <v>85.2</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="3"/>
-        <v>23</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>0.625</v>
-      </c>
-      <c r="B17">
-        <v>45</v>
-      </c>
-      <c r="C17">
-        <v>85</v>
-      </c>
-      <c r="D17">
-        <v>70</v>
-      </c>
-      <c r="E17">
-        <v>19</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="1"/>
-        <v>67.5</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="2"/>
-        <v>102</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="0"/>
-        <v>84</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="0"/>
-        <v>22.8</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="3"/>
-        <v>22.5</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="B18">
-        <v>41</v>
-      </c>
-      <c r="C18">
-        <v>42</v>
-      </c>
-      <c r="D18">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>79</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="1"/>
-        <v>61.5</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="2"/>
-        <v>50.4</v>
-      </c>
-      <c r="H18">
-        <f t="shared" ref="H18:H25" si="4">1.2*D18</f>
-        <v>25.2</v>
-      </c>
-      <c r="I18">
-        <f t="shared" ref="I18:I25" si="5">1.2*E18</f>
-        <v>94.8</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="3"/>
-        <v>20.5</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>0.70833333333333304</v>
-      </c>
-      <c r="B19">
-        <v>46</v>
-      </c>
-      <c r="C19">
-        <v>71</v>
-      </c>
-      <c r="D19">
-        <v>78</v>
-      </c>
-      <c r="E19">
-        <v>38</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="1"/>
-        <v>69</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="2"/>
-        <v>85.2</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="4"/>
-        <v>93.6</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="5"/>
-        <v>45.6</v>
-      </c>
-      <c r="J19">
-        <f t="shared" si="3"/>
-        <v>23</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="B20">
-        <v>52</v>
-      </c>
-      <c r="C20">
-        <v>76</v>
-      </c>
-      <c r="D20">
-        <v>79</v>
-      </c>
-      <c r="E20">
-        <v>39</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="1"/>
-        <v>78</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="2"/>
-        <v>91.2</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="4"/>
-        <v>94.8</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="5"/>
-        <v>46.8</v>
-      </c>
-      <c r="J20">
-        <f t="shared" si="3"/>
-        <v>26</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>0.79166666666666696</v>
-      </c>
-      <c r="B21">
-        <v>56</v>
-      </c>
-      <c r="C21">
-        <v>70</v>
-      </c>
-      <c r="D21">
-        <v>28</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="1"/>
-        <v>84</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="2"/>
-        <v>84</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="4"/>
-        <v>33.6</v>
-      </c>
-      <c r="I21">
-        <f t="shared" si="5"/>
-        <v>1.2</v>
-      </c>
-      <c r="J21">
-        <f t="shared" si="3"/>
-        <v>28</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="B22">
-        <v>33</v>
-      </c>
-      <c r="C22">
-        <v>74</v>
-      </c>
-      <c r="D22">
-        <v>9</v>
-      </c>
-      <c r="E22">
-        <v>23</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="1"/>
-        <v>49.5</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="2"/>
-        <v>88.8</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="4"/>
-        <v>10.799999999999999</v>
-      </c>
-      <c r="I22">
-        <f t="shared" si="5"/>
-        <v>27.599999999999998</v>
-      </c>
-      <c r="J22">
-        <f t="shared" si="3"/>
-        <v>16.5</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="B23">
-        <v>43</v>
-      </c>
-      <c r="C23">
-        <v>84</v>
-      </c>
-      <c r="D23">
-        <v>32</v>
-      </c>
-      <c r="E23">
-        <v>47</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="1"/>
-        <v>64.5</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="2"/>
-        <v>100.8</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="4"/>
-        <v>38.4</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="5"/>
-        <v>56.4</v>
-      </c>
-      <c r="J23">
-        <f t="shared" si="3"/>
-        <v>21.5</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>0.91666666666666696</v>
-      </c>
-      <c r="B24">
-        <v>57</v>
-      </c>
-      <c r="C24">
-        <v>59</v>
-      </c>
-      <c r="D24">
-        <v>40</v>
-      </c>
-      <c r="E24">
-        <v>24</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="1"/>
-        <v>85.5</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="2"/>
-        <v>70.8</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="4"/>
-        <v>48</v>
-      </c>
-      <c r="I24">
-        <f t="shared" si="5"/>
-        <v>28.799999999999997</v>
-      </c>
-      <c r="J24">
-        <f t="shared" si="3"/>
-        <v>28.5</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>0.95833333333333304</v>
-      </c>
-      <c r="B25">
-        <v>32</v>
-      </c>
-      <c r="C25">
-        <v>65</v>
-      </c>
-      <c r="D25">
-        <v>53</v>
-      </c>
-      <c r="E25">
-        <v>96</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="2"/>
-        <v>78</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="4"/>
-        <v>63.599999999999994</v>
-      </c>
-      <c r="I25">
-        <f t="shared" si="5"/>
-        <v>115.19999999999999</v>
-      </c>
-      <c r="J25">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
+        <v>0.2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/input_data/input_data_V3.xlsx
+++ b/input_data/input_data_V3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\Hope\Predicer_structured\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD4691E-13D3-4F60-8AE7-B22B62C11455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4289BF-0EF5-4C0B-95FC-790284A193DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4290" yWindow="4290" windowWidth="28800" windowHeight="15435" tabRatio="796" activeTab="11" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" activeTab="14" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="nodes" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,8 @@
     <sheet name="scenarios" sheetId="9" r:id="rId11"/>
     <sheet name="fixed_ts" sheetId="11" r:id="rId12"/>
     <sheet name="eff_ts" sheetId="12" r:id="rId13"/>
+    <sheet name="constraints" sheetId="15" r:id="rId14"/>
+    <sheet name="gen_constraint" sheetId="14" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="110">
   <si>
     <t>node</t>
   </si>
@@ -342,6 +344,39 @@
   </si>
   <si>
     <t>reserve_type</t>
+  </si>
+  <si>
+    <t>c1,ngchp,elc,s1</t>
+  </si>
+  <si>
+    <t>c1,ngchp,elc,s2</t>
+  </si>
+  <si>
+    <t>c1,ngchp,elc,s3</t>
+  </si>
+  <si>
+    <t>c1,ngchp,dh,s1</t>
+  </si>
+  <si>
+    <t>c1,ngchp,dh,s2</t>
+  </si>
+  <si>
+    <t>c1,s1</t>
+  </si>
+  <si>
+    <t>c1,s2</t>
+  </si>
+  <si>
+    <t>c1</t>
+  </si>
+  <si>
+    <t>eq</t>
+  </si>
+  <si>
+    <t>c1,ngchp,dh,s3</t>
+  </si>
+  <si>
+    <t>c1,s3</t>
   </si>
 </sst>
 </file>
@@ -2134,8 +2169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31679CA5-0AA2-4F6F-8223-14BF74917F04}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B1:B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2282,7 +2317,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection sqref="A1:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2635,6 +2670,853 @@
       </c>
       <c r="D25">
         <v>3.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBD884EF-0EA4-4AC5-A670-AF3B762CD9AF}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A90F653-F4E3-45D8-85C7-CE688A2B506E}">
+  <dimension ref="A1:J25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>-0.8</v>
+      </c>
+      <c r="F2">
+        <v>-0.8</v>
+      </c>
+      <c r="G2">
+        <v>-0.8</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>-0.8</v>
+      </c>
+      <c r="F3">
+        <v>-0.8</v>
+      </c>
+      <c r="G3">
+        <v>-0.8</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>-0.8</v>
+      </c>
+      <c r="F4">
+        <v>-0.8</v>
+      </c>
+      <c r="G4">
+        <v>-0.8</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>-0.8</v>
+      </c>
+      <c r="F5">
+        <v>-0.8</v>
+      </c>
+      <c r="G5">
+        <v>-0.8</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>-0.8</v>
+      </c>
+      <c r="F6">
+        <v>-0.8</v>
+      </c>
+      <c r="G6">
+        <v>-0.8</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>-0.8</v>
+      </c>
+      <c r="F7">
+        <v>-0.8</v>
+      </c>
+      <c r="G7">
+        <v>-0.8</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>-0.8</v>
+      </c>
+      <c r="F8">
+        <v>-0.8</v>
+      </c>
+      <c r="G8">
+        <v>-0.8</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>-0.8</v>
+      </c>
+      <c r="F9">
+        <v>-0.8</v>
+      </c>
+      <c r="G9">
+        <v>-0.8</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>-0.8</v>
+      </c>
+      <c r="F10">
+        <v>-0.8</v>
+      </c>
+      <c r="G10">
+        <v>-0.8</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>-0.8</v>
+      </c>
+      <c r="F11">
+        <v>-0.8</v>
+      </c>
+      <c r="G11">
+        <v>-0.8</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>-0.8</v>
+      </c>
+      <c r="F12">
+        <v>-0.8</v>
+      </c>
+      <c r="G12">
+        <v>-0.8</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>-0.8</v>
+      </c>
+      <c r="F13">
+        <v>-0.8</v>
+      </c>
+      <c r="G13">
+        <v>-0.8</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>-0.8</v>
+      </c>
+      <c r="F14">
+        <v>-0.8</v>
+      </c>
+      <c r="G14">
+        <v>-0.8</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>-0.8</v>
+      </c>
+      <c r="F15">
+        <v>-0.8</v>
+      </c>
+      <c r="G15">
+        <v>-0.8</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>-0.8</v>
+      </c>
+      <c r="F16">
+        <v>-0.8</v>
+      </c>
+      <c r="G16">
+        <v>-0.8</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>-0.8</v>
+      </c>
+      <c r="F17">
+        <v>-0.8</v>
+      </c>
+      <c r="G17">
+        <v>-0.8</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>-0.8</v>
+      </c>
+      <c r="F18">
+        <v>-0.8</v>
+      </c>
+      <c r="G18">
+        <v>-0.8</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>-0.8</v>
+      </c>
+      <c r="F19">
+        <v>-0.8</v>
+      </c>
+      <c r="G19">
+        <v>-0.8</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>-0.8</v>
+      </c>
+      <c r="F20">
+        <v>-0.8</v>
+      </c>
+      <c r="G20">
+        <v>-0.8</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>-0.8</v>
+      </c>
+      <c r="F21">
+        <v>-0.8</v>
+      </c>
+      <c r="G21">
+        <v>-0.8</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>-0.8</v>
+      </c>
+      <c r="F22">
+        <v>-0.8</v>
+      </c>
+      <c r="G22">
+        <v>-0.8</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>-0.8</v>
+      </c>
+      <c r="F23">
+        <v>-0.8</v>
+      </c>
+      <c r="G23">
+        <v>-0.8</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>-0.8</v>
+      </c>
+      <c r="F24">
+        <v>-0.8</v>
+      </c>
+      <c r="G24">
+        <v>-0.8</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>-0.8</v>
+      </c>
+      <c r="F25">
+        <v>-0.8</v>
+      </c>
+      <c r="G25">
+        <v>-0.8</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3038,7 +3920,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/input_data/input_data_V3.xlsx
+++ b/input_data/input_data_V3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\Hope\Predicer_structured\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4289BF-0EF5-4C0B-95FC-790284A193DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4159817-9D2F-4F3C-80F3-3FCFD1EF1AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" activeTab="14" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="796" activeTab="6" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="nodes" sheetId="1" r:id="rId1"/>
@@ -26,8 +26,9 @@
     <sheet name="scenarios" sheetId="9" r:id="rId11"/>
     <sheet name="fixed_ts" sheetId="11" r:id="rId12"/>
     <sheet name="eff_ts" sheetId="12" r:id="rId13"/>
-    <sheet name="constraints" sheetId="15" r:id="rId14"/>
-    <sheet name="gen_constraint" sheetId="14" r:id="rId15"/>
+    <sheet name="cap_ts" sheetId="16" r:id="rId14"/>
+    <sheet name="constraints" sheetId="15" r:id="rId15"/>
+    <sheet name="gen_constraint" sheetId="14" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="113">
   <si>
     <t>node</t>
   </si>
@@ -377,6 +378,15 @@
   </si>
   <si>
     <t>c1,s3</t>
+  </si>
+  <si>
+    <t>hp1,elc,s1</t>
+  </si>
+  <si>
+    <t>hp1,elc,s2</t>
+  </si>
+  <si>
+    <t>hp1,elc,s3</t>
   </si>
 </sst>
 </file>
@@ -2317,7 +2327,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A25"/>
+      <selection sqref="A1:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2679,6 +2689,444 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{639E2AE2-C00A-4319-B62E-F3BA6616BAFD}">
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <f>process_topology!$E$6/eff_ts!B2</f>
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <f>process_topology!$E$6/eff_ts!C2</f>
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <f>process_topology!$E$6/eff_ts!D2</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="B3">
+        <f>process_topology!$E$6/eff_ts!B3</f>
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="C3">
+        <f>process_topology!$E$6/eff_ts!C3</f>
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="D3">
+        <f>process_topology!$E$6/eff_ts!D3</f>
+        <v>4.2857142857142856</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="B4">
+        <f>process_topology!$E$6/eff_ts!B4</f>
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="C4">
+        <f>process_topology!$E$6/eff_ts!C4</f>
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="D4">
+        <f>process_topology!$E$6/eff_ts!D4</f>
+        <v>4.2857142857142856</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="B5">
+        <f>process_topology!$E$6/eff_ts!B5</f>
+        <v>4.4117647058823533</v>
+      </c>
+      <c r="C5">
+        <f>process_topology!$E$6/eff_ts!C5</f>
+        <v>4.4117647058823533</v>
+      </c>
+      <c r="D5">
+        <f>process_topology!$E$6/eff_ts!D5</f>
+        <v>4.4117647058823533</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="B6">
+        <f>process_topology!$E$6/eff_ts!B6</f>
+        <v>4.5454545454545459</v>
+      </c>
+      <c r="C6">
+        <f>process_topology!$E$6/eff_ts!C6</f>
+        <v>4.5454545454545459</v>
+      </c>
+      <c r="D6">
+        <f>process_topology!$E$6/eff_ts!D6</f>
+        <v>4.5454545454545459</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="B7">
+        <f>process_topology!$E$6/eff_ts!B7</f>
+        <v>4.6875</v>
+      </c>
+      <c r="C7">
+        <f>process_topology!$E$6/eff_ts!C7</f>
+        <v>4.6875</v>
+      </c>
+      <c r="D7">
+        <f>process_topology!$E$6/eff_ts!D7</f>
+        <v>4.6875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="B8">
+        <f>process_topology!$E$6/eff_ts!B8</f>
+        <v>4.838709677419355</v>
+      </c>
+      <c r="C8">
+        <f>process_topology!$E$6/eff_ts!C8</f>
+        <v>4.838709677419355</v>
+      </c>
+      <c r="D8">
+        <f>process_topology!$E$6/eff_ts!D8</f>
+        <v>4.838709677419355</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="B9">
+        <f>process_topology!$E$6/eff_ts!B9</f>
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <f>process_topology!$E$6/eff_ts!C9</f>
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <f>process_topology!$E$6/eff_ts!D9</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="B10">
+        <f>process_topology!$E$6/eff_ts!B10</f>
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <f>process_topology!$E$6/eff_ts!C10</f>
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <f>process_topology!$E$6/eff_ts!D10</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="B11">
+        <f>process_topology!$E$6/eff_ts!B11</f>
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <f>process_topology!$E$6/eff_ts!C11</f>
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <f>process_topology!$E$6/eff_ts!D11</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="B12">
+        <f>process_topology!$E$6/eff_ts!B12</f>
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <f>process_topology!$E$6/eff_ts!C12</f>
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <f>process_topology!$E$6/eff_ts!D12</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="B13">
+        <f>process_topology!$E$6/eff_ts!B13</f>
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <f>process_topology!$E$6/eff_ts!C13</f>
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <f>process_topology!$E$6/eff_ts!D13</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B14">
+        <f>process_topology!$E$6/eff_ts!B14</f>
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <f>process_topology!$E$6/eff_ts!C14</f>
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <f>process_topology!$E$6/eff_ts!D14</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="B15">
+        <f>process_topology!$E$6/eff_ts!B15</f>
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <f>process_topology!$E$6/eff_ts!C15</f>
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <f>process_topology!$E$6/eff_ts!D15</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="B16">
+        <f>process_topology!$E$6/eff_ts!B16</f>
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <f>process_topology!$E$6/eff_ts!C16</f>
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <f>process_topology!$E$6/eff_ts!D16</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="B17">
+        <f>process_topology!$E$6/eff_ts!B17</f>
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <f>process_topology!$E$6/eff_ts!C17</f>
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <f>process_topology!$E$6/eff_ts!D17</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="B18">
+        <f>process_topology!$E$6/eff_ts!B18</f>
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <f>process_topology!$E$6/eff_ts!C18</f>
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <f>process_topology!$E$6/eff_ts!D18</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="B19">
+        <f>process_topology!$E$6/eff_ts!B19</f>
+        <v>3.75</v>
+      </c>
+      <c r="C19">
+        <f>process_topology!$E$6/eff_ts!C19</f>
+        <v>3.75</v>
+      </c>
+      <c r="D19">
+        <f>process_topology!$E$6/eff_ts!D19</f>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="B20">
+        <f>process_topology!$E$6/eff_ts!B20</f>
+        <v>3.75</v>
+      </c>
+      <c r="C20">
+        <f>process_topology!$E$6/eff_ts!C20</f>
+        <v>3.75</v>
+      </c>
+      <c r="D20">
+        <f>process_topology!$E$6/eff_ts!D20</f>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="B21">
+        <f>process_topology!$E$6/eff_ts!B21</f>
+        <v>3.75</v>
+      </c>
+      <c r="C21">
+        <f>process_topology!$E$6/eff_ts!C21</f>
+        <v>3.75</v>
+      </c>
+      <c r="D21">
+        <f>process_topology!$E$6/eff_ts!D21</f>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="B22">
+        <f>process_topology!$E$6/eff_ts!B22</f>
+        <v>3.75</v>
+      </c>
+      <c r="C22">
+        <f>process_topology!$E$6/eff_ts!C22</f>
+        <v>3.75</v>
+      </c>
+      <c r="D22">
+        <f>process_topology!$E$6/eff_ts!D22</f>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="B23">
+        <f>process_topology!$E$6/eff_ts!B23</f>
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="C23">
+        <f>process_topology!$E$6/eff_ts!C23</f>
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="D23">
+        <f>process_topology!$E$6/eff_ts!D23</f>
+        <v>4.2857142857142856</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="B24">
+        <f>process_topology!$E$6/eff_ts!B24</f>
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="C24">
+        <f>process_topology!$E$6/eff_ts!C24</f>
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="D24">
+        <f>process_topology!$E$6/eff_ts!D24</f>
+        <v>4.2857142857142856</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="B25">
+        <f>process_topology!$E$6/eff_ts!B25</f>
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="C25">
+        <f>process_topology!$E$6/eff_ts!C25</f>
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="D25">
+        <f>process_topology!$E$6/eff_ts!D25</f>
+        <v>4.2857142857142856</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBD884EF-0EA4-4AC5-A670-AF3B762CD9AF}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -2709,11 +3157,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A90F653-F4E3-45D8-85C7-CE688A2B506E}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
@@ -3920,7 +4368,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4755,7 +5203,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F87DD44-A1AD-4241-AED7-C48CC9DEE2E2}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
